--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.00733200000001</v>
+        <v>10.37416333333333</v>
       </c>
       <c r="H2">
-        <v>231.021996</v>
+        <v>31.12249</v>
       </c>
       <c r="I2">
-        <v>0.719883034071185</v>
+        <v>0.2339167445675379</v>
       </c>
       <c r="J2">
-        <v>0.719883034071185</v>
+        <v>0.2339167445675379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N2">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>8732.834645480039</v>
+        <v>0.4119441937488889</v>
       </c>
       <c r="R2">
-        <v>78595.51180932033</v>
+        <v>3.70749774374</v>
       </c>
       <c r="S2">
-        <v>0.719883034071185</v>
+        <v>0.2339167445675379</v>
       </c>
       <c r="T2">
-        <v>0.719883034071185</v>
+        <v>0.2339167445675379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>28.676351</v>
       </c>
       <c r="I3">
-        <v>0.08935780540988078</v>
+        <v>0.2155315552192661</v>
       </c>
       <c r="J3">
-        <v>0.08935780540988079</v>
+        <v>0.2155315552192661</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N3">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1083.991290243835</v>
+        <v>0.3795665543584443</v>
       </c>
       <c r="R3">
-        <v>9755.921612194516</v>
+        <v>3.416098989226</v>
       </c>
       <c r="S3">
-        <v>0.08935780540988078</v>
+        <v>0.2155315552192661</v>
       </c>
       <c r="T3">
-        <v>0.08935780540988079</v>
+        <v>0.2155315552192661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.40589</v>
+        <v>24.41686366666667</v>
       </c>
       <c r="H4">
-        <v>61.21767</v>
+        <v>73.250591</v>
       </c>
       <c r="I4">
-        <v>0.1907591605189341</v>
+        <v>0.5505517002131959</v>
       </c>
       <c r="J4">
-        <v>0.1907591605189341</v>
+        <v>0.550551700213196</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>113.4026386666667</v>
+        <v>0.03970866666666666</v>
       </c>
       <c r="N4">
-        <v>340.207916</v>
+        <v>0.119126</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2314.081770341747</v>
+        <v>0.9695611003851111</v>
       </c>
       <c r="R4">
-        <v>20826.73593307572</v>
+        <v>8.726049903466</v>
       </c>
       <c r="S4">
-        <v>0.1907591605189341</v>
+        <v>0.5505517002131959</v>
       </c>
       <c r="T4">
-        <v>0.1907591605189341</v>
+        <v>0.550551700213196</v>
       </c>
     </row>
   </sheetData>
